--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Macroalbuminuria (UPTO).xlsx
@@ -667,10 +667,10 @@
         <v>-14.38544018036207</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.4593833384905</v>
+        <v>-10.45938333849049</v>
       </c>
       <c r="F3" t="n">
-        <v>-18.07308338837562</v>
+        <v>-18.07308338837561</v>
       </c>
       <c r="G3" t="n">
         <v>-14.57863539350384</v>
@@ -682,7 +682,7 @@
         <v>-17.68546967633191</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.9660255148564261</v>
+        <v>-0.966025514856419</v>
       </c>
       <c r="K3" t="n">
         <v>-1.316701065474989</v>
@@ -709,7 +709,7 @@
         <v>13.62093844031538</v>
       </c>
       <c r="S3" t="n">
-        <v>6.169058306821367</v>
+        <v>6.169058306821366</v>
       </c>
       <c r="T3" t="n">
         <v>3.324575400840785</v>
@@ -718,13 +718,13 @@
         <v>9.406069256320285</v>
       </c>
       <c r="V3" t="n">
-        <v>3.585648739650813</v>
+        <v>3.585648739650814</v>
       </c>
       <c r="W3" t="n">
-        <v>1.644938330466</v>
+        <v>1.644938330465999</v>
       </c>
       <c r="X3" t="n">
-        <v>6.003873393422728</v>
+        <v>6.003873393422729</v>
       </c>
       <c r="Y3" t="n">
         <v>0.8677580914152456</v>
@@ -750,7 +750,7 @@
         <v>-11.07832544027004</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.071941778132448</v>
+        <v>-8.071941778132445</v>
       </c>
       <c r="F4" t="n">
         <v>-13.95672480147117</v>
@@ -759,16 +759,16 @@
         <v>-12.40975361675469</v>
       </c>
       <c r="H4" t="n">
-        <v>-9.54342313974584</v>
+        <v>-9.543423139745844</v>
       </c>
       <c r="I4" t="n">
         <v>-15.03770938029341</v>
       </c>
       <c r="J4" t="n">
-        <v>2.265391411786998</v>
+        <v>2.265391411787002</v>
       </c>
       <c r="K4" t="n">
-        <v>1.150910720423765</v>
+        <v>1.150910720423767</v>
       </c>
       <c r="L4" t="n">
         <v>3.777362367474764</v>
@@ -792,7 +792,7 @@
         <v>14.38462893437087</v>
       </c>
       <c r="S4" t="n">
-        <v>5.911741870782642</v>
+        <v>5.911741870782641</v>
       </c>
       <c r="T4" t="n">
         <v>3.157489674555053</v>
@@ -804,7 +804,7 @@
         <v>3.292067950511996</v>
       </c>
       <c r="W4" t="n">
-        <v>1.516252153557078</v>
+        <v>1.516252153557077</v>
       </c>
       <c r="X4" t="n">
         <v>5.550687841946701</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.629951433094886</v>
+        <v>-6.62995143309489</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.05143993396869</v>
+        <v>-5.051439933968688</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.926395977563343</v>
+        <v>-7.926395977563337</v>
       </c>
       <c r="G5" t="n">
         <v>-5.268431816310793</v>
@@ -845,10 +845,10 @@
         <v>-4.547021435662067</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.523470747061767</v>
+        <v>-5.523470747061774</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.157621328376072</v>
+        <v>-1.157621328376065</v>
       </c>
       <c r="K5" t="n">
         <v>-1.801266552740458</v>
@@ -857,7 +857,7 @@
         <v>-0.05806064117675547</v>
       </c>
       <c r="M5" t="n">
-        <v>3.892076855509917</v>
+        <v>3.892076855509913</v>
       </c>
       <c r="N5" t="n">
         <v>1.589134202676457</v>
@@ -890,7 +890,7 @@
         <v>1.292440039226851</v>
       </c>
       <c r="X5" t="n">
-        <v>5.013143022655348</v>
+        <v>5.013143022655349</v>
       </c>
       <c r="Y5" t="n">
         <v>0.7348730366299234</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.43407987565492</v>
+        <v>2.434079875654919</v>
       </c>
       <c r="E6" t="n">
         <v>1.455225205483807</v>
       </c>
       <c r="F6" t="n">
-        <v>3.556639144383016</v>
+        <v>3.556639144383017</v>
       </c>
       <c r="G6" t="n">
         <v>5.072593384032681</v>
@@ -928,10 +928,10 @@
         <v>3.087409338505156</v>
       </c>
       <c r="I6" t="n">
-        <v>7.452681638028107</v>
+        <v>7.452681638028103</v>
       </c>
       <c r="J6" t="n">
-        <v>5.813238291736198</v>
+        <v>5.8132382917362</v>
       </c>
       <c r="K6" t="n">
         <v>3.329603971778698</v>
@@ -940,16 +940,16 @@
         <v>8.866775570483952</v>
       </c>
       <c r="M6" t="n">
-        <v>5.61434297859453</v>
+        <v>5.614342978594531</v>
       </c>
       <c r="N6" t="n">
-        <v>2.996445920748523</v>
+        <v>2.996445920748524</v>
       </c>
       <c r="O6" t="n">
         <v>8.813535158106676</v>
       </c>
       <c r="P6" t="n">
-        <v>4.817931504550451</v>
+        <v>4.81793150455045</v>
       </c>
       <c r="Q6" t="n">
         <v>2.679101671048697</v>
@@ -970,7 +970,7 @@
         <v>2.080745588709063</v>
       </c>
       <c r="W6" t="n">
-        <v>0.873188638188428</v>
+        <v>0.8731886381884278</v>
       </c>
       <c r="X6" t="n">
         <v>3.65592045162898</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.039045329919832</v>
+        <v>-2.039045329919831</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.446277673212419</v>
+        <v>-1.446277673212417</v>
       </c>
       <c r="F7" t="n">
         <v>-2.611057859580625</v>
@@ -1029,7 +1029,7 @@
         <v>14.65292804780005</v>
       </c>
       <c r="O7" t="n">
-        <v>27.34111993869603</v>
+        <v>27.34111993869602</v>
       </c>
       <c r="P7" t="n">
         <v>9.301793452425148</v>
@@ -1041,7 +1041,7 @@
         <v>13.4256596891026</v>
       </c>
       <c r="S7" t="n">
-        <v>4.448363292762361</v>
+        <v>4.44836329276236</v>
       </c>
       <c r="T7" t="n">
         <v>2.304214320024265</v>
@@ -1059,10 +1059,10 @@
         <v>3.844145059832848</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4959776026017731</v>
+        <v>0.4959776026017732</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.09666203773534238</v>
+        <v>0.09666203773534236</v>
       </c>
       <c r="AA7" t="n">
         <v>1.118920072175916</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.02784162161117</v>
+        <v>3.027841621611175</v>
       </c>
       <c r="E8" t="n">
-        <v>2.482947815385357</v>
+        <v>2.482947815385358</v>
       </c>
       <c r="F8" t="n">
-        <v>3.311955510824991</v>
+        <v>3.311955510824985</v>
       </c>
       <c r="G8" t="n">
         <v>11.31076458939748</v>
@@ -1094,10 +1094,10 @@
         <v>8.694544769976392</v>
       </c>
       <c r="I8" t="n">
-        <v>13.62761743836885</v>
+        <v>13.62761743836886</v>
       </c>
       <c r="J8" t="n">
-        <v>28.70952649766418</v>
+        <v>28.70952649766417</v>
       </c>
       <c r="K8" t="n">
         <v>21.1977479652928</v>
@@ -1139,16 +1139,16 @@
         <v>0.7064595383882597</v>
       </c>
       <c r="X8" t="n">
-        <v>2.660309191240556</v>
+        <v>2.660309191240555</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2531357407152973</v>
+        <v>0.2531357407152974</v>
       </c>
       <c r="Z8" t="n">
         <v>0.06908259921947582</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5438905139314401</v>
+        <v>0.5438905139314399</v>
       </c>
     </row>
     <row r="9">
@@ -1162,31 +1162,31 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.395626194690563</v>
+        <v>-2.395626194690565</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.896872952460103</v>
+        <v>-1.8968729524601</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.732055065868914</v>
+        <v>-2.73205506586891</v>
       </c>
       <c r="G9" t="n">
-        <v>1.316264834268589</v>
+        <v>1.316264834268591</v>
       </c>
       <c r="H9" t="n">
         <v>0.507902382434934</v>
       </c>
       <c r="I9" t="n">
-        <v>2.438103725644906</v>
+        <v>2.438103725644902</v>
       </c>
       <c r="J9" t="n">
-        <v>6.311585314219515</v>
+        <v>6.31158531421952</v>
       </c>
       <c r="K9" t="n">
-        <v>3.863839846314354</v>
+        <v>3.863839846314353</v>
       </c>
       <c r="L9" t="n">
-        <v>9.191913527896489</v>
+        <v>9.191913527896491</v>
       </c>
       <c r="M9" t="n">
         <v>10.02282094709241</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.477643450176925</v>
+        <v>5.477643450176926</v>
       </c>
       <c r="E10" t="n">
-        <v>4.214729834121751</v>
+        <v>4.214729834121754</v>
       </c>
       <c r="F10" t="n">
-        <v>6.562273458962443</v>
+        <v>6.56227345896244</v>
       </c>
       <c r="G10" t="n">
         <v>17.31402623624265</v>
@@ -1260,10 +1260,10 @@
         <v>13.09316688065572</v>
       </c>
       <c r="I10" t="n">
-        <v>21.30824923138172</v>
+        <v>21.30824923138173</v>
       </c>
       <c r="J10" t="n">
-        <v>29.2175522644896</v>
+        <v>29.21755226448959</v>
       </c>
       <c r="K10" t="n">
         <v>21.39339491801444</v>
@@ -1278,7 +1278,7 @@
         <v>23.91406557524418</v>
       </c>
       <c r="O10" t="n">
-        <v>41.94693448198727</v>
+        <v>41.94693448198726</v>
       </c>
       <c r="P10" t="n">
         <v>10.72921208073029</v>
@@ -1293,7 +1293,7 @@
         <v>3.482398250650941</v>
       </c>
       <c r="T10" t="n">
-        <v>1.729731186665498</v>
+        <v>1.729731186665497</v>
       </c>
       <c r="U10" t="n">
         <v>5.846944235809494</v>
@@ -1302,16 +1302,16 @@
         <v>1.201458673192553</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5445804911676806</v>
+        <v>0.5445804911676807</v>
       </c>
       <c r="X10" t="n">
-        <v>2.209457723166242</v>
+        <v>2.209457723166241</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.198532496897613</v>
+        <v>0.1985324968976132</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05117267695250977</v>
+        <v>0.05117267695250974</v>
       </c>
       <c r="AA10" t="n">
         <v>0.4444801820182614</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.643653915659649</v>
+        <v>6.643653915659647</v>
       </c>
       <c r="E11" t="n">
         <v>4.728791152459928</v>
       </c>
       <c r="F11" t="n">
-        <v>8.613611876021631</v>
+        <v>8.613611876021633</v>
       </c>
       <c r="G11" t="n">
         <v>16.97187814727473</v>
@@ -1358,7 +1358,7 @@
         <v>14.2201343539474</v>
       </c>
       <c r="N11" t="n">
-        <v>9.594659503113942</v>
+        <v>9.59465950311394</v>
       </c>
       <c r="O11" t="n">
         <v>19.16448125389608</v>
@@ -1385,16 +1385,16 @@
         <v>1.354500423696602</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5446105010576426</v>
+        <v>0.5446105010576427</v>
       </c>
       <c r="X11" t="n">
         <v>2.4744186664384</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2966241271070622</v>
+        <v>0.2966241271070623</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.04616398499955598</v>
+        <v>0.04616398499955597</v>
       </c>
       <c r="AA11" t="n">
         <v>0.7161040134463261</v>
@@ -1414,7 +1414,7 @@
         <v>11.1167791212344</v>
       </c>
       <c r="E12" t="n">
-        <v>7.630294031156153</v>
+        <v>7.630294031156151</v>
       </c>
       <c r="F12" t="n">
         <v>14.78130887998527</v>
@@ -1429,19 +1429,19 @@
         <v>24.92849474396641</v>
       </c>
       <c r="J12" t="n">
-        <v>9.859432194168715</v>
+        <v>9.859432194168718</v>
       </c>
       <c r="K12" t="n">
-        <v>6.042533097669287</v>
+        <v>6.042533097669286</v>
       </c>
       <c r="L12" t="n">
         <v>14.28132673090568</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.9899322355290092</v>
+        <v>-0.989932235529011</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.061822623937591</v>
+        <v>-2.061822623937587</v>
       </c>
       <c r="O12" t="n">
         <v>0.6368964733067308</v>
@@ -1450,16 +1450,16 @@
         <v>1.254172662898238</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2753360691831133</v>
+        <v>0.2753360691831128</v>
       </c>
       <c r="R12" t="n">
         <v>2.682114015148398</v>
       </c>
       <c r="S12" t="n">
-        <v>1.718410192032475</v>
+        <v>1.718410192032476</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7347181423710689</v>
+        <v>0.7347181423710688</v>
       </c>
       <c r="U12" t="n">
         <v>3.027326799516497</v>
@@ -1468,13 +1468,13 @@
         <v>1.213961385061834</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4159543340386827</v>
+        <v>0.4159543340386829</v>
       </c>
       <c r="X12" t="n">
-        <v>2.286194058234531</v>
+        <v>2.286194058234532</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3085151973154945</v>
+        <v>0.3085151973154944</v>
       </c>
       <c r="Z12" t="n">
         <v>0.02730355184628448</v>
@@ -1509,7 +1509,7 @@
         <v>20.66907554080971</v>
       </c>
       <c r="I13" t="n">
-        <v>35.83706577699656</v>
+        <v>35.83706577699657</v>
       </c>
       <c r="J13" t="n">
         <v>25.29619250184321</v>
@@ -1518,7 +1518,7 @@
         <v>17.90698177031457</v>
       </c>
       <c r="L13" t="n">
-        <v>33.1064130264647</v>
+        <v>33.10641302646471</v>
       </c>
       <c r="M13" t="n">
         <v>15.68003391613385</v>
@@ -1542,7 +1542,7 @@
         <v>1.496625004861397</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5904696611726934</v>
+        <v>0.5904696611726933</v>
       </c>
       <c r="U13" t="n">
         <v>2.883255718468451</v>
@@ -1551,16 +1551,16 @@
         <v>0.5129240553322589</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1349391656185497</v>
+        <v>0.1349391656185499</v>
       </c>
       <c r="X13" t="n">
         <v>1.146871906951615</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.07751261900399548</v>
+        <v>0.07751261900399553</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.002203514335027509</v>
+        <v>0.002203514335027502</v>
       </c>
       <c r="AA13" t="n">
         <v>0.2440883140905018</v>
@@ -1580,7 +1580,7 @@
         <v>9.47478780739573</v>
       </c>
       <c r="E14" t="n">
-        <v>6.792169484976476</v>
+        <v>6.792169484976475</v>
       </c>
       <c r="F14" t="n">
         <v>12.12229521050319</v>
@@ -1592,7 +1592,7 @@
         <v>14.28872606746462</v>
       </c>
       <c r="I14" t="n">
-        <v>24.97546291181925</v>
+        <v>24.97546291181926</v>
       </c>
       <c r="J14" t="n">
         <v>21.35547525051262</v>
@@ -1619,7 +1619,7 @@
         <v>3.469453239997988</v>
       </c>
       <c r="R14" t="n">
-        <v>9.459728465624188</v>
+        <v>9.45972846562419</v>
       </c>
       <c r="S14" t="n">
         <v>2.477021061825969</v>
@@ -1628,13 +1628,13 @@
         <v>1.156503449024097</v>
       </c>
       <c r="U14" t="n">
-        <v>4.283027640988669</v>
+        <v>4.28302764098867</v>
       </c>
       <c r="V14" t="n">
         <v>1.073794401424784</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4207143569483857</v>
+        <v>0.4207143569483858</v>
       </c>
       <c r="X14" t="n">
         <v>2.036071020732165</v>
@@ -1643,7 +1643,7 @@
         <v>0.214369994964371</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03313871080077478</v>
+        <v>0.03313871080077477</v>
       </c>
       <c r="AA14" t="n">
         <v>0.5298013297250033</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.125537314172295</v>
+        <v>1.125537314172291</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3565034705531178</v>
+        <v>0.3565034705531183</v>
       </c>
       <c r="F15" t="n">
-        <v>2.220291433248934</v>
+        <v>2.220291433248941</v>
       </c>
       <c r="G15" t="n">
         <v>4.041771760882254</v>
@@ -1675,16 +1675,16 @@
         <v>2.067284600165657</v>
       </c>
       <c r="I15" t="n">
-        <v>6.63852818220837</v>
+        <v>6.638528182208361</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.349217141895718</v>
+        <v>-1.349217141895711</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.285832040005928</v>
+        <v>-2.285832040005927</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1777188228967397</v>
+        <v>0.1777188228967432</v>
       </c>
       <c r="M15" t="n">
         <v>-5.449612203282166</v>
@@ -1699,7 +1699,7 @@
         <v>2.043608197696049</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8547812694423595</v>
+        <v>0.8547812694423591</v>
       </c>
       <c r="R15" t="n">
         <v>3.497259082805225</v>
@@ -1717,7 +1717,7 @@
         <v>2.310494241963997</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9399417479877026</v>
+        <v>0.9399417479877025</v>
       </c>
       <c r="X15" t="n">
         <v>4.022412651887969</v>
@@ -1743,37 +1743,37 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.482118178943028</v>
+        <v>1.482118178943026</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8070987498008018</v>
+        <v>0.8070987498008027</v>
       </c>
       <c r="F16" t="n">
-        <v>2.341288639537225</v>
+        <v>2.341288639537228</v>
       </c>
       <c r="G16" t="n">
         <v>5.971366622865113</v>
       </c>
       <c r="H16" t="n">
-        <v>3.815055400348797</v>
+        <v>3.815055400348796</v>
       </c>
       <c r="I16" t="n">
-        <v>8.519103190279974</v>
+        <v>8.519103190279971</v>
       </c>
       <c r="J16" t="n">
-        <v>6.215787407459692</v>
+        <v>6.215787407459697</v>
       </c>
       <c r="K16" t="n">
         <v>3.621557102681619</v>
       </c>
       <c r="L16" t="n">
-        <v>9.309803259933236</v>
+        <v>9.309803259933238</v>
       </c>
       <c r="M16" t="n">
-        <v>5.351976417696367</v>
+        <v>5.351976417696366</v>
       </c>
       <c r="N16" t="n">
-        <v>2.764686211936736</v>
+        <v>2.764686211936737</v>
       </c>
       <c r="O16" t="n">
         <v>8.411258616987327</v>
@@ -1785,10 +1785,10 @@
         <v>2.581221389082801</v>
       </c>
       <c r="R16" t="n">
-        <v>7.195999466265145</v>
+        <v>7.195999466265144</v>
       </c>
       <c r="S16" t="n">
-        <v>3.448261162441011</v>
+        <v>3.448261162441012</v>
       </c>
       <c r="T16" t="n">
         <v>1.738808230031545</v>
@@ -1809,7 +1809,7 @@
         <v>0.5157615285268566</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07945453858514392</v>
+        <v>0.07945453858514391</v>
       </c>
       <c r="AA16" t="n">
         <v>1.213087575473612</v>
@@ -1829,7 +1829,7 @@
         <v>13.02070251465818</v>
       </c>
       <c r="E17" t="n">
-        <v>8.926546942522165</v>
+        <v>8.926546942522162</v>
       </c>
       <c r="F17" t="n">
         <v>17.21200988967685</v>
@@ -1844,19 +1844,19 @@
         <v>22.79565163946268</v>
       </c>
       <c r="J17" t="n">
-        <v>9.054333962721724</v>
+        <v>9.054333962721721</v>
       </c>
       <c r="K17" t="n">
-        <v>5.458626835863444</v>
+        <v>5.458626835863443</v>
       </c>
       <c r="L17" t="n">
         <v>13.39527135200711</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.4651991137326821</v>
+        <v>-0.4651991137326803</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.598303206314014</v>
+        <v>-1.598303206314013</v>
       </c>
       <c r="O17" t="n">
         <v>1.441449555545429</v>
@@ -1874,7 +1874,7 @@
         <v>1.69730995801798</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7034315517763489</v>
+        <v>0.7034315517763491</v>
       </c>
       <c r="U17" t="n">
         <v>3.029169624066498</v>
@@ -1889,10 +1889,10 @@
         <v>2.226842435155364</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2927294858821921</v>
+        <v>0.292729485882192</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02399768384013837</v>
+        <v>0.02399768384013838</v>
       </c>
       <c r="AA17" t="n">
         <v>0.7571933831982947</v>
@@ -1912,10 +1912,10 @@
         <v>-10.12636374355815</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.423815322449442</v>
+        <v>-7.42381532244944</v>
       </c>
       <c r="F18" t="n">
-        <v>-12.74137429662537</v>
+        <v>-12.74137429662538</v>
       </c>
       <c r="G18" t="n">
         <v>-13.30852685558712</v>
@@ -1933,7 +1933,7 @@
         <v>0.8589575895208448</v>
       </c>
       <c r="L18" t="n">
-        <v>3.334334678025479</v>
+        <v>3.334334678025478</v>
       </c>
       <c r="M18" t="n">
         <v>16.88946272211411</v>
@@ -1954,7 +1954,7 @@
         <v>14.5284531119823</v>
       </c>
       <c r="S18" t="n">
-        <v>5.901191753775394</v>
+        <v>5.901191753775393</v>
       </c>
       <c r="T18" t="n">
         <v>3.141846379257693</v>
@@ -1966,13 +1966,13 @@
         <v>3.266318416777997</v>
       </c>
       <c r="W18" t="n">
-        <v>1.506672087957748</v>
+        <v>1.506672087957747</v>
       </c>
       <c r="X18" t="n">
         <v>5.521012030407118</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.7736646756975774</v>
+        <v>0.7736646756975775</v>
       </c>
       <c r="Z18" t="n">
         <v>0.1486889805894329</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.87512351128278</v>
+        <v>14.87512351128277</v>
       </c>
       <c r="E19" t="n">
         <v>10.46079778482324</v>
@@ -2022,16 +2022,16 @@
         <v>5.009628575604401</v>
       </c>
       <c r="N19" t="n">
-        <v>2.568746139784476</v>
+        <v>2.568746139784477</v>
       </c>
       <c r="O19" t="n">
-        <v>7.93980374495235</v>
+        <v>7.939803744952352</v>
       </c>
       <c r="P19" t="n">
         <v>1.967881977050809</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6949819241492325</v>
+        <v>0.6949819241492321</v>
       </c>
       <c r="R19" t="n">
         <v>3.778022470425062</v>
@@ -2040,7 +2040,7 @@
         <v>1.235427670976766</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4474765756916852</v>
+        <v>0.447476575691685</v>
       </c>
       <c r="U19" t="n">
         <v>2.409973880544191</v>
@@ -2049,7 +2049,7 @@
         <v>0.7040484079861942</v>
       </c>
       <c r="W19" t="n">
-        <v>0.187322177018829</v>
+        <v>0.1873221770188293</v>
       </c>
       <c r="X19" t="n">
         <v>1.468850389901228</v>
@@ -2078,7 +2078,7 @@
         <v>10.1895686229221</v>
       </c>
       <c r="E20" t="n">
-        <v>6.863168610005616</v>
+        <v>6.863168610005612</v>
       </c>
       <c r="F20" t="n">
         <v>13.70332655519529</v>
@@ -2093,13 +2093,13 @@
         <v>19.61468056729824</v>
       </c>
       <c r="J20" t="n">
-        <v>5.62164247821655</v>
+        <v>5.621642478216552</v>
       </c>
       <c r="K20" t="n">
         <v>2.845038484513228</v>
       </c>
       <c r="L20" t="n">
-        <v>9.102555034557447</v>
+        <v>9.102555034557449</v>
       </c>
       <c r="M20" t="n">
         <v>-3.727346080197551</v>
@@ -2108,7 +2108,7 @@
         <v>-4.145347296986834</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.612280621396732</v>
+        <v>-2.612280621396728</v>
       </c>
       <c r="P20" t="n">
         <v>0.9976252491595332</v>
@@ -2123,7 +2123,7 @@
         <v>1.949351335553082</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8626956304134008</v>
+        <v>0.8626956304134009</v>
       </c>
       <c r="U20" t="n">
         <v>3.336924671277651</v>
@@ -2138,10 +2138,10 @@
         <v>2.6651900808616</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3749836180248833</v>
+        <v>0.3749836180248832</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03702295803891957</v>
+        <v>0.03702295803891958</v>
       </c>
       <c r="AA20" t="n">
         <v>0.9434960669196175</v>
@@ -2158,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.48069035755243</v>
+        <v>3.480690357552427</v>
       </c>
       <c r="E21" t="n">
-        <v>2.095818575228164</v>
+        <v>2.095818575228163</v>
       </c>
       <c r="F21" t="n">
-        <v>5.121299515307597</v>
+        <v>5.121299515307602</v>
       </c>
       <c r="G21" t="n">
-        <v>7.109426776463836</v>
+        <v>7.109426776463837</v>
       </c>
       <c r="H21" t="n">
-        <v>4.412834993753249</v>
+        <v>4.412834993753248</v>
       </c>
       <c r="I21" t="n">
-        <v>10.35271003049874</v>
+        <v>10.35271003049873</v>
       </c>
       <c r="J21" t="n">
-        <v>2.284748900471202</v>
+        <v>2.284748900471207</v>
       </c>
       <c r="K21" t="n">
         <v>0.4737328767957489</v>
       </c>
       <c r="L21" t="n">
-        <v>4.69194898507104</v>
+        <v>4.691948985071043</v>
       </c>
       <c r="M21" t="n">
         <v>-2.31864851726638</v>
       </c>
       <c r="N21" t="n">
-        <v>-3.121494778791977</v>
+        <v>-3.121494778791975</v>
       </c>
       <c r="O21" t="n">
         <v>-0.9531029085871836</v>
@@ -2203,7 +2203,7 @@
         <v>4.117125399249274</v>
       </c>
       <c r="S21" t="n">
-        <v>2.945572568028525</v>
+        <v>2.945572568028526</v>
       </c>
       <c r="T21" t="n">
         <v>1.452194361210845</v>
@@ -2244,7 +2244,7 @@
         <v>8.879406975454572</v>
       </c>
       <c r="E22" t="n">
-        <v>6.594638308541153</v>
+        <v>6.594638308541155</v>
       </c>
       <c r="F22" t="n">
         <v>11.02794191194569</v>
@@ -2289,28 +2289,28 @@
         <v>2.743493454214224</v>
       </c>
       <c r="T22" t="n">
-        <v>1.307318182153786</v>
+        <v>1.307318182153785</v>
       </c>
       <c r="U22" t="n">
         <v>4.755848772775429</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8955448156378479</v>
+        <v>0.8955448156378478</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3731213783477713</v>
+        <v>0.3731213783477715</v>
       </c>
       <c r="X22" t="n">
         <v>1.728930443552343</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1360363973632776</v>
+        <v>0.1360363973632777</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03160982068247065</v>
+        <v>0.03160982068247063</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.3273771389231735</v>
+        <v>0.3273771389231734</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.90720508122967</v>
+        <v>6.907205081229669</v>
       </c>
       <c r="E23" t="n">
-        <v>4.356728084180033</v>
+        <v>4.35672808418003</v>
       </c>
       <c r="F23" t="n">
-        <v>9.724336148346655</v>
+        <v>9.724336148346657</v>
       </c>
       <c r="G23" t="n">
         <v>6.899327071813913</v>
@@ -2342,22 +2342,22 @@
         <v>10.5866845423397</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.250113280102532</v>
+        <v>-2.250113280102529</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.112021045444505</v>
+        <v>-3.112021045444504</v>
       </c>
       <c r="L23" t="n">
         <v>-0.5904468239650811</v>
       </c>
       <c r="M23" t="n">
-        <v>-9.595723610881882</v>
+        <v>-9.595723610881878</v>
       </c>
       <c r="N23" t="n">
-        <v>-8.660036206303008</v>
+        <v>-8.660036206303005</v>
       </c>
       <c r="O23" t="n">
-        <v>-9.714049622482676</v>
+        <v>-9.714049622482673</v>
       </c>
       <c r="P23" t="n">
         <v>0.334069556675753</v>
@@ -2366,13 +2366,13 @@
         <v>-0.2073122903172222</v>
       </c>
       <c r="R23" t="n">
-        <v>1.253987598650557</v>
+        <v>1.253987598650556</v>
       </c>
       <c r="S23" t="n">
         <v>2.427058798105168</v>
       </c>
       <c r="T23" t="n">
-        <v>1.142115549444104</v>
+        <v>1.142115549444105</v>
       </c>
       <c r="U23" t="n">
         <v>3.954738296387458</v>
@@ -2381,16 +2381,16 @@
         <v>1.940206550074294</v>
       </c>
       <c r="W23" t="n">
-        <v>0.7445324711694681</v>
+        <v>0.7445324711694679</v>
       </c>
       <c r="X23" t="n">
         <v>3.467695843425111</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5197597430186378</v>
+        <v>0.5197597430186376</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05894117142879935</v>
+        <v>0.05894117142879937</v>
       </c>
       <c r="AA23" t="n">
         <v>1.27186965640749</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.006137330587082</v>
+        <v>1.006137330587079</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4830355219592994</v>
+        <v>0.4830355219593003</v>
       </c>
       <c r="F24" t="n">
-        <v>1.733613387114331</v>
+        <v>1.733613387114334</v>
       </c>
       <c r="G24" t="n">
         <v>6.420753242281329</v>
@@ -2422,25 +2422,25 @@
         <v>4.178878431270617</v>
       </c>
       <c r="I24" t="n">
-        <v>9.052313966405906</v>
+        <v>9.052313966405904</v>
       </c>
       <c r="J24" t="n">
-        <v>6.417061965321441</v>
+        <v>6.417061965321445</v>
       </c>
       <c r="K24" t="n">
         <v>3.76753366813308</v>
       </c>
       <c r="L24" t="n">
-        <v>9.531317104657878</v>
+        <v>9.531317104657882</v>
       </c>
       <c r="M24" t="n">
-        <v>5.220793137247285</v>
+        <v>5.220793137247283</v>
       </c>
       <c r="N24" t="n">
         <v>2.648806357530843</v>
       </c>
       <c r="O24" t="n">
-        <v>8.210120346427651</v>
+        <v>8.210120346427653</v>
       </c>
       <c r="P24" t="n">
         <v>4.667470639544078</v>
@@ -2452,7 +2452,7 @@
         <v>7.124087377459427</v>
       </c>
       <c r="S24" t="n">
-        <v>3.453536220944635</v>
+        <v>3.453536220944636</v>
       </c>
       <c r="T24" t="n">
         <v>1.746629877680225</v>
@@ -2493,10 +2493,10 @@
         <v>-5.79738971996821</v>
       </c>
       <c r="E25" t="n">
-        <v>-4.276781426879505</v>
+        <v>-4.276781426879501</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.197723518852158</v>
+        <v>-7.197723518852157</v>
       </c>
       <c r="G25" t="n">
         <v>-3.788223573744149</v>
@@ -2505,10 +2505,10 @@
         <v>-3.163073666400749</v>
       </c>
       <c r="I25" t="n">
-        <v>-4.176106515116098</v>
+        <v>-4.176106515116102</v>
       </c>
       <c r="J25" t="n">
-        <v>6.206108663117591</v>
+        <v>6.206108663117594</v>
       </c>
       <c r="K25" t="n">
         <v>3.960146024495628</v>
@@ -2547,7 +2547,7 @@
         <v>2.731197604419471</v>
       </c>
       <c r="W25" t="n">
-        <v>1.230476962227242</v>
+        <v>1.230476962227241</v>
       </c>
       <c r="X25" t="n">
         <v>4.661488728166152</v>
@@ -2576,7 +2576,7 @@
         <v>5.384613750976214</v>
       </c>
       <c r="E26" t="n">
-        <v>3.392071486594174</v>
+        <v>3.392071486594173</v>
       </c>
       <c r="F26" t="n">
         <v>7.552000524999179</v>
@@ -2588,7 +2588,7 @@
         <v>2.957542870065968</v>
       </c>
       <c r="I26" t="n">
-        <v>8.219866925995003</v>
+        <v>8.219866925994999</v>
       </c>
       <c r="J26" t="n">
         <v>1.479650669024211</v>
@@ -2600,7 +2600,7 @@
         <v>3.805893606172472</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.793915395470052</v>
+        <v>-1.79391539547005</v>
       </c>
       <c r="N26" t="n">
         <v>-2.6579753611684</v>
@@ -2615,7 +2615,7 @@
         <v>1.309304901840159</v>
       </c>
       <c r="R26" t="n">
-        <v>4.404773754472146</v>
+        <v>4.404773754472145</v>
       </c>
       <c r="S26" t="n">
         <v>2.92447233401403</v>
@@ -2630,16 +2630,16 @@
         <v>1.99116391909118</v>
       </c>
       <c r="W26" t="n">
-        <v>0.8016755054794504</v>
+        <v>0.8016755054794502</v>
       </c>
       <c r="X26" t="n">
         <v>3.539551288872357</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5078945661269332</v>
+        <v>0.5078945661269331</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.06713168750313031</v>
+        <v>0.06713168750313034</v>
       </c>
       <c r="AA26" t="n">
         <v>1.220362726963164</v>
@@ -2659,10 +2659,10 @@
         <v>23.46317397167664</v>
       </c>
       <c r="E27" t="n">
-        <v>16.64339969643424</v>
+        <v>16.64339969643423</v>
       </c>
       <c r="F27" t="n">
-        <v>30.24333440878027</v>
+        <v>30.24333440878026</v>
       </c>
       <c r="G27" t="n">
         <v>36.62310692481125</v>
@@ -2683,10 +2683,10 @@
         <v>32.89916480108892</v>
       </c>
       <c r="M27" t="n">
-        <v>6.600711418239934</v>
+        <v>6.600711418239936</v>
       </c>
       <c r="N27" t="n">
-        <v>3.860178003450648</v>
+        <v>3.86017800345065</v>
       </c>
       <c r="O27" t="n">
         <v>9.932079667965615</v>
@@ -2698,13 +2698,13 @@
         <v>-0.0453460626101263</v>
       </c>
       <c r="R27" t="n">
-        <v>2.486835263935621</v>
+        <v>2.486835263935622</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.002284822026532574</v>
+        <v>-0.00228482202653213</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.2856429384454509</v>
+        <v>-0.2856429384454506</v>
       </c>
       <c r="U27" t="n">
         <v>0.7029076169503199</v>
@@ -2713,19 +2713,19 @@
         <v>-0.1504027272451485</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.227139191219929</v>
+        <v>-0.2271391912199286</v>
       </c>
       <c r="X27" t="n">
         <v>0.126465724644651</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.06326529149797783</v>
+        <v>-0.06326529149797788</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.04022806621119685</v>
+        <v>-0.04022806621119684</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.02550319446349258</v>
+        <v>-0.0255031944634927</v>
       </c>
     </row>
     <row r="28">
@@ -2739,13 +2739,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8867373470018682</v>
+        <v>0.8867373470018673</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6095675733654806</v>
+        <v>0.6095675733654824</v>
       </c>
       <c r="F28" t="n">
-        <v>1.246935340979725</v>
+        <v>1.246935340979728</v>
       </c>
       <c r="G28" t="n">
         <v>8.799734723680405</v>
@@ -2766,7 +2766,7 @@
         <v>18.88491538641902</v>
       </c>
       <c r="M28" t="n">
-        <v>15.89119847777674</v>
+        <v>15.89119847777673</v>
       </c>
       <c r="N28" t="n">
         <v>10.85027173012059</v>
@@ -2796,13 +2796,13 @@
         <v>1.928245536656126</v>
       </c>
       <c r="W28" t="n">
-        <v>0.8351757251871437</v>
+        <v>0.8351757251871438</v>
       </c>
       <c r="X28" t="n">
         <v>3.378455685988742</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.4374279309257633</v>
+        <v>0.4374279309257634</v>
       </c>
       <c r="Z28" t="n">
         <v>0.07792564846683978</v>
@@ -2825,7 +2825,7 @@
         <v>10.78494945486326</v>
       </c>
       <c r="E29" t="n">
-        <v>7.060699786440937</v>
+        <v>7.060699786440934</v>
       </c>
       <c r="F29" t="n">
         <v>14.7976798537528</v>
@@ -2840,7 +2840,7 @@
         <v>16.66768400697477</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.345911186862356</v>
+        <v>-2.345911186862352</v>
       </c>
       <c r="K29" t="n">
         <v>-3.354303789077239</v>
@@ -2855,22 +2855,22 @@
         <v>-12.23093281517069</v>
       </c>
       <c r="O29" t="n">
-        <v>-15.42695751223437</v>
+        <v>-15.42695751223438</v>
       </c>
       <c r="P29" t="n">
         <v>-1.576083571019706</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.465166414008596</v>
+        <v>-1.465166414008597</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.276932240726982</v>
+        <v>-1.276932240726984</v>
       </c>
       <c r="S29" t="n">
         <v>1.682878943164827</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7118808972837124</v>
+        <v>0.711880897283713</v>
       </c>
       <c r="U29" t="n">
         <v>2.864103539490893</v>
@@ -2879,16 +2879,16 @@
         <v>1.62141792565259</v>
       </c>
       <c r="W29" t="n">
-        <v>0.5682833255498939</v>
+        <v>0.5682833255498936</v>
       </c>
       <c r="X29" t="n">
         <v>2.972330658041421</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.4533172156259767</v>
+        <v>0.4533172156259765</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03855184815722371</v>
+        <v>0.03855184815722373</v>
       </c>
       <c r="AA29" t="n">
         <v>1.145920257721447</v>
@@ -2908,7 +2908,7 @@
         <v>8.666977292668646</v>
       </c>
       <c r="E30" t="n">
-        <v>5.898512012419757</v>
+        <v>5.898512012419755</v>
       </c>
       <c r="F30" t="n">
         <v>11.53099093184782</v>
@@ -2920,10 +2920,10 @@
         <v>8.74011275000661</v>
       </c>
       <c r="I30" t="n">
-        <v>17.24786295095355</v>
+        <v>17.24786295095354</v>
       </c>
       <c r="J30" t="n">
-        <v>9.351406427343296</v>
+        <v>9.351406427343294</v>
       </c>
       <c r="K30" t="n">
         <v>5.846886144947639</v>
@@ -2932,10 +2932,10 @@
         <v>13.498895464695</v>
       </c>
       <c r="M30" t="n">
-        <v>4.074462135214278</v>
+        <v>4.074462135214279</v>
       </c>
       <c r="N30" t="n">
-        <v>1.856713548147771</v>
+        <v>1.856713548147772</v>
       </c>
       <c r="O30" t="n">
         <v>6.953219174737457</v>
@@ -2950,7 +2950,7 @@
         <v>5.42877012094309</v>
       </c>
       <c r="S30" t="n">
-        <v>2.446764871461944</v>
+        <v>2.446764871461945</v>
       </c>
       <c r="T30" t="n">
         <v>1.141487851585421</v>
@@ -2962,16 +2962,16 @@
         <v>1.49412570888254</v>
       </c>
       <c r="W30" t="n">
-        <v>0.5778333812592619</v>
+        <v>0.5778333812592618</v>
       </c>
       <c r="X30" t="n">
         <v>2.737045526308846</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.3631184411331788</v>
+        <v>0.3631184411331787</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.04521347411325054</v>
+        <v>0.04521347411325055</v>
       </c>
       <c r="AA30" t="n">
         <v>0.891989137475292</v>
@@ -2988,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.024985978829976</v>
+        <v>7.024985978829979</v>
       </c>
       <c r="E31" t="n">
         <v>5.06038746624008</v>
       </c>
       <c r="F31" t="n">
-        <v>8.871977262365736</v>
+        <v>8.871977262365732</v>
       </c>
       <c r="G31" t="n">
-        <v>13.58688489659492</v>
+        <v>13.58688489659493</v>
       </c>
       <c r="H31" t="n">
         <v>9.890103956785296</v>
@@ -3006,13 +3006,13 @@
         <v>17.29483111880639</v>
       </c>
       <c r="J31" t="n">
-        <v>20.8474494836872</v>
+        <v>20.84744948368719</v>
       </c>
       <c r="K31" t="n">
         <v>14.90209951352105</v>
       </c>
       <c r="L31" t="n">
-        <v>27.2488341765937</v>
+        <v>27.24883417659369</v>
       </c>
       <c r="M31" t="n">
         <v>22.54667569115556</v>
@@ -3051,7 +3051,7 @@
         <v>2.486922488806479</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2689732387820552</v>
+        <v>0.2689732387820553</v>
       </c>
       <c r="Z31" t="n">
         <v>0.05104863306774084</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.646509558440844</v>
+        <v>2.646509558440845</v>
       </c>
       <c r="E32" t="n">
-        <v>2.151351501605204</v>
+        <v>2.151351501605206</v>
       </c>
       <c r="F32" t="n">
-        <v>3.053590124480885</v>
+        <v>3.053590124480887</v>
       </c>
       <c r="G32" t="n">
         <v>14.69575784007728</v>
@@ -3089,7 +3089,7 @@
         <v>18.12727815921729</v>
       </c>
       <c r="J32" t="n">
-        <v>25.78486077998442</v>
+        <v>25.78486077998443</v>
       </c>
       <c r="K32" t="n">
         <v>18.77980656666423</v>
@@ -3119,7 +3119,7 @@
         <v>3.734439628186044</v>
       </c>
       <c r="T32" t="n">
-        <v>1.88899526530255</v>
+        <v>1.888995265302549</v>
       </c>
       <c r="U32" t="n">
         <v>6.154699283020647</v>
@@ -3128,16 +3128,16 @@
         <v>1.482164695464371</v>
       </c>
       <c r="W32" t="n">
-        <v>0.6684766352769375</v>
+        <v>0.6684766352769377</v>
       </c>
       <c r="X32" t="n">
         <v>2.647805368872477</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2807866290403043</v>
+        <v>0.2807866290403044</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.06419795115129097</v>
+        <v>0.06419795115129096</v>
       </c>
       <c r="AA32" t="n">
         <v>0.6307828657395843</v>
@@ -3187,7 +3187,7 @@
         <v>12.02582373938087</v>
       </c>
       <c r="O33" t="n">
-        <v>23.01707316027856</v>
+        <v>23.01707316027857</v>
       </c>
       <c r="P33" t="n">
         <v>6.145042889518012</v>
@@ -3196,7 +3196,7 @@
         <v>3.42051309901504</v>
       </c>
       <c r="R33" t="n">
-        <v>9.387816376818471</v>
+        <v>9.387816376818472</v>
       </c>
       <c r="S33" t="n">
         <v>2.482296120329593</v>
@@ -3211,7 +3211,7 @@
         <v>1.086669168291783</v>
       </c>
       <c r="W33" t="n">
-        <v>0.4255043897480507</v>
+        <v>0.4255043897480509</v>
       </c>
       <c r="X33" t="n">
         <v>2.050908926501957</v>
@@ -3220,7 +3220,7 @@
         <v>0.2183164228226966</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.03396517780231131</v>
+        <v>0.0339651778023113</v>
       </c>
       <c r="AA33" t="n">
         <v>0.538647685315958</v>
@@ -3240,7 +3240,7 @@
         <v>17.82565738660407</v>
       </c>
       <c r="E34" t="n">
-        <v>12.39764406593361</v>
+        <v>12.3976440659336</v>
       </c>
       <c r="F34" t="n">
         <v>23.36333591987297</v>
@@ -3264,10 +3264,10 @@
         <v>18.69193278039208</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.398629798460183</v>
+        <v>-2.398629798460181</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.08567514213245</v>
+        <v>-3.085675142132448</v>
       </c>
       <c r="O34" t="n">
         <v>-1.022281239502814</v>
@@ -3282,10 +3282,10 @@
         <v>0.8429725810206268</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7221889595570317</v>
+        <v>0.7221889595570321</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1452194115736249</v>
+        <v>0.1452194115736252</v>
       </c>
       <c r="U34" t="n">
         <v>1.62893699540878</v>
@@ -3294,16 +3294,16 @@
         <v>0.6144667383683107</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1158090443098516</v>
+        <v>0.1158090443098517</v>
       </c>
       <c r="X34" t="n">
         <v>1.352481227144606</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1598185377801422</v>
+        <v>0.1598185377801421</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.006111045624072393</v>
+        <v>-0.006111045624072366</v>
       </c>
       <c r="AA34" t="n">
         <v>0.4803267231547479</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.359862552576619</v>
+        <v>5.359862552576616</v>
       </c>
       <c r="E35" t="n">
         <v>3.511070452061706</v>
       </c>
       <c r="F35" t="n">
-        <v>7.414632344943364</v>
+        <v>7.414632344943367</v>
       </c>
       <c r="G35" t="n">
         <v>10.62646841146164</v>
@@ -3338,19 +3338,19 @@
         <v>14.60010265491504</v>
       </c>
       <c r="J35" t="n">
-        <v>6.119989500699869</v>
+        <v>6.119989500699874</v>
       </c>
       <c r="K35" t="n">
         <v>3.379274359048885</v>
       </c>
       <c r="L35" t="n">
-        <v>9.427692991969984</v>
+        <v>9.427692991969986</v>
       </c>
       <c r="M35" t="n">
         <v>0.6811318883003263</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.8062103969309433</v>
+        <v>-0.8062103969309415</v>
       </c>
       <c r="O35" t="n">
         <v>2.698350727235624</v>
@@ -3383,7 +3383,7 @@
         <v>3.190231077784873</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4493190011341957</v>
+        <v>0.4493190011341955</v>
       </c>
       <c r="Z35" t="n">
         <v>0.05906521531356827</v>
@@ -3406,10 +3406,10 @@
         <v>-2.515026178275777</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.770340901053921</v>
+        <v>-1.770340901053919</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.218733112003521</v>
+        <v>-3.218733112003519</v>
       </c>
       <c r="G36" t="n">
         <v>3.695246315667665</v>
@@ -3421,7 +3421,7 @@
         <v>4.851889509842442</v>
       </c>
       <c r="J36" t="n">
-        <v>14.07786442143667</v>
+        <v>14.07786442143668</v>
       </c>
       <c r="K36" t="n">
         <v>9.917205554453361</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>8.310396427897912</v>
+        <v>8.31039642789791</v>
       </c>
       <c r="E37" t="n">
-        <v>5.447916733172073</v>
+        <v>5.44791673317207</v>
       </c>
       <c r="F37" t="n">
         <v>11.40999372555953</v>
@@ -3498,31 +3498,31 @@
         <v>10.86575532622793</v>
       </c>
       <c r="H37" t="n">
-        <v>6.992341949823471</v>
+        <v>6.99234194982347</v>
       </c>
       <c r="I37" t="n">
         <v>15.36728794288194</v>
       </c>
       <c r="J37" t="n">
-        <v>1.786401877987883</v>
+        <v>1.786401877987887</v>
       </c>
       <c r="K37" t="n">
         <v>-0.06050299773990808</v>
       </c>
       <c r="L37" t="n">
-        <v>4.366811027658503</v>
+        <v>4.366811027658505</v>
       </c>
       <c r="M37" t="n">
         <v>-6.727126485764257</v>
       </c>
       <c r="N37" t="n">
-        <v>-6.460631678847868</v>
+        <v>-6.460631678847866</v>
       </c>
       <c r="O37" t="n">
         <v>-6.263734257219539</v>
       </c>
       <c r="P37" t="n">
-        <v>0.640770592083248</v>
+        <v>0.6407705920832472</v>
       </c>
       <c r="Q37" t="n">
         <v>-0.04642950381711053</v>
@@ -3549,10 +3549,10 @@
         <v>3.073861915028251</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4493448944509234</v>
+        <v>0.4493448944509232</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.04839529823462772</v>
+        <v>0.04839529823462774</v>
       </c>
       <c r="AA37" t="n">
         <v>1.112106039459031</v>
@@ -3584,7 +3584,7 @@
         <v>19.81156301052688</v>
       </c>
       <c r="I38" t="n">
-        <v>35.53782951271159</v>
+        <v>35.5378295127116</v>
       </c>
       <c r="J38" t="n">
         <v>20.56005576340772</v>
@@ -3596,10 +3596,10 @@
         <v>27.60250337270394</v>
       </c>
       <c r="M38" t="n">
-        <v>8.534142102967433</v>
+        <v>8.534142102967436</v>
       </c>
       <c r="N38" t="n">
-        <v>5.347549939269084</v>
+        <v>5.347549939269085</v>
       </c>
       <c r="O38" t="n">
         <v>12.39581046301386</v>
@@ -3611,13 +3611,13 @@
         <v>1.100565415564084</v>
       </c>
       <c r="R38" t="n">
-        <v>4.613625053286263</v>
+        <v>4.613625053286264</v>
       </c>
       <c r="S38" t="n">
         <v>0.972836176434416</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2725692017572732</v>
+        <v>0.2725692017572734</v>
       </c>
       <c r="U38" t="n">
         <v>2.103140245608039</v>
@@ -3626,19 +3626,19 @@
         <v>0.3975928519803766</v>
       </c>
       <c r="W38" t="n">
-        <v>0.05384596731024205</v>
+        <v>0.05384596731024216</v>
       </c>
       <c r="X38" t="n">
         <v>1.000826932655409</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.06964565660407207</v>
+        <v>0.06964565660407201</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.0101193367469861</v>
+        <v>-0.01011933674698608</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.2513634655800542</v>
+        <v>0.2513634655800541</v>
       </c>
     </row>
     <row r="39">
@@ -3652,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>15.47050434322394</v>
+        <v>15.47050434322393</v>
       </c>
       <c r="E39" t="n">
         <v>10.65832896125856</v>
       </c>
       <c r="F39" t="n">
-        <v>20.4623278378143</v>
+        <v>20.46232783781431</v>
       </c>
       <c r="G39" t="n">
         <v>23.00432700423627</v>
@@ -3670,7 +3670,7 @@
         <v>30.47628343247555</v>
       </c>
       <c r="J39" t="n">
-        <v>9.562359729547143</v>
+        <v>9.562359729547145</v>
       </c>
       <c r="K39" t="n">
         <v>5.65427378858509</v>
@@ -3682,10 +3682,10 @@
         <v>-5.529593484475969</v>
       </c>
       <c r="N39" t="n">
-        <v>-5.516839378399375</v>
+        <v>-5.516839378399373</v>
       </c>
       <c r="O39" t="n">
-        <v>-4.874873145885303</v>
+        <v>-4.874873145885299</v>
       </c>
       <c r="P39" t="n">
         <v>-0.6058268431284297</v>
@@ -3697,10 +3697,10 @@
         <v>0.2231062645765771</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9689552785885103</v>
+        <v>0.9689552785885107</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2966618425619967</v>
+        <v>0.2966618425619969</v>
       </c>
       <c r="U39" t="n">
         <v>1.937152748757432</v>
@@ -3715,10 +3715,10 @@
         <v>1.77599096708105</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2381262420645079</v>
+        <v>0.2381262420645077</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.006087761573172298</v>
+        <v>0.006087761573172312</v>
       </c>
       <c r="AA39" t="n">
         <v>0.6577830512851162</v>
@@ -3738,22 +3738,22 @@
         <v>-3.322836693002861</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.66399837361064</v>
+        <v>-2.663998373610638</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.810037390658889</v>
+        <v>-3.810037390658887</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.099550039561644</v>
+        <v>-3.099550039561642</v>
       </c>
       <c r="H40" t="n">
         <v>-2.929117103918117</v>
       </c>
       <c r="I40" t="n">
-        <v>-2.875710451023265</v>
+        <v>-2.875710451023272</v>
       </c>
       <c r="J40" t="n">
-        <v>2.073795598267353</v>
+        <v>2.073795598267356</v>
       </c>
       <c r="K40" t="n">
         <v>0.666345233158296</v>
@@ -3762,7 +3762,7 @@
         <v>4.013141831548261</v>
       </c>
       <c r="M40" t="n">
-        <v>7.285407102423867</v>
+        <v>7.285407102423866</v>
       </c>
       <c r="N40" t="n">
         <v>4.25205814775517</v>
@@ -3821,10 +3821,10 @@
         <v>-4.964828006841531</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.502122919790317</v>
+        <v>-3.502122919790314</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.469051060140974</v>
+        <v>-6.469051060140976</v>
       </c>
       <c r="G41" t="n">
         <v>-2.308015331177506</v>
@@ -3857,13 +3857,13 @@
         <v>11.31225382345819</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.921250038071887</v>
+        <v>6.921250038071888</v>
       </c>
       <c r="R41" t="n">
         <v>16.10040370609158</v>
       </c>
       <c r="S41" t="n">
-        <v>5.181993030695454</v>
+        <v>5.181993030695453</v>
       </c>
       <c r="T41" t="n">
         <v>2.718805676887297</v>
@@ -3881,7 +3881,7 @@
         <v>4.309834433676954</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.5545272742777829</v>
+        <v>0.554527274277783</v>
       </c>
       <c r="Z41" t="n">
         <v>0.115398427003845</v>
@@ -3931,7 +3931,7 @@
         <v>9.811656385449524</v>
       </c>
       <c r="N42" t="n">
-        <v>6.255522603058049</v>
+        <v>6.25552260305805</v>
       </c>
       <c r="O42" t="n">
         <v>13.85384990526373</v>
@@ -3949,7 +3949,7 @@
         <v>1.974332467413483</v>
       </c>
       <c r="T42" t="n">
-        <v>0.869889580203397</v>
+        <v>0.8698895802033971</v>
       </c>
       <c r="U42" t="n">
         <v>3.501069343578257</v>
@@ -3958,7 +3958,7 @@
         <v>1.009962265540899</v>
       </c>
       <c r="W42" t="n">
-        <v>0.3587812898387382</v>
+        <v>0.3587812898387384</v>
       </c>
       <c r="X42" t="n">
         <v>1.949377669515127</v>
@@ -3967,7 +3967,7 @@
         <v>0.2222887439977499</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.02412172772490729</v>
+        <v>0.02412172772490728</v>
       </c>
       <c r="AA42" t="n">
         <v>0.5724619035783742</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.142958141024591</v>
+        <v>9.142958141024593</v>
       </c>
       <c r="E43" t="n">
-        <v>6.22257524026126</v>
+        <v>6.222575240261258</v>
       </c>
       <c r="F43" t="n">
         <v>12.13866618427071</v>
@@ -4002,7 +4002,7 @@
         <v>16.71465217482761</v>
       </c>
       <c r="J43" t="n">
-        <v>9.150131869481548</v>
+        <v>9.150131869481545</v>
       </c>
       <c r="K43" t="n">
         <v>5.700909579496178</v>
@@ -4011,10 +4011,10 @@
         <v>13.27738161997036</v>
       </c>
       <c r="M43" t="n">
-        <v>4.205645415663358</v>
+        <v>4.205645415663362</v>
       </c>
       <c r="N43" t="n">
-        <v>1.972593402553664</v>
+        <v>1.972593402553665</v>
       </c>
       <c r="O43" t="n">
         <v>7.154357445297132</v>
@@ -4041,16 +4041,16 @@
         <v>1.48125094201554</v>
       </c>
       <c r="W43" t="n">
-        <v>0.5730433484595968</v>
+        <v>0.5730433484595967</v>
       </c>
       <c r="X43" t="n">
         <v>2.722207620539054</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.3591720132748532</v>
+        <v>0.3591720132748531</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.04438700711171401</v>
+        <v>0.04438700711171403</v>
       </c>
       <c r="AA43" t="n">
         <v>0.8831427818843373</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.513598356885181</v>
+        <v>-4.513598356885179</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.059060726481282</v>
+        <v>-3.059060726481278</v>
       </c>
       <c r="F44" t="n">
         <v>-5.998743987773891</v>
@@ -4082,7 +4082,7 @@
         <v>2.02171662013544</v>
       </c>
       <c r="I44" t="n">
-        <v>3.018282669623675</v>
+        <v>3.018282669623677</v>
       </c>
       <c r="J44" t="n">
         <v>18.00890292842517</v>
@@ -4091,7 +4091,7 @@
         <v>13.06502978033923</v>
       </c>
       <c r="L44" t="n">
-        <v>23.16336608451982</v>
+        <v>23.16336608451983</v>
       </c>
       <c r="M44" t="n">
         <v>28.36385122258461</v>
@@ -4124,13 +4124,13 @@
         <v>2.297991530094716</v>
       </c>
       <c r="W44" t="n">
-        <v>1.068567905116701</v>
+        <v>1.0685679051167</v>
       </c>
       <c r="X44" t="n">
         <v>3.945676316819678</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4920052814267198</v>
+        <v>0.4920052814267199</v>
       </c>
       <c r="Z44" t="n">
         <v>0.1065054878127464</v>
@@ -4156,7 +4156,7 @@
         <v>14.46102239845015</v>
       </c>
       <c r="F45" t="n">
-        <v>26.87201925435453</v>
+        <v>26.87201925435452</v>
       </c>
       <c r="G45" t="n">
         <v>28.69025041598322</v>
@@ -4165,10 +4165,10 @@
         <v>20.40934260393134</v>
       </c>
       <c r="I45" t="n">
-        <v>37.37143635293035</v>
+        <v>37.37143635293036</v>
       </c>
       <c r="J45" t="n">
-        <v>16.62901725641924</v>
+        <v>16.62901725641923</v>
       </c>
       <c r="K45" t="n">
         <v>11.02742705673698</v>
@@ -4177,10 +4177,10 @@
         <v>22.98464909784174</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8635171680046856</v>
+        <v>0.8635171680046909</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.5386310514596282</v>
+        <v>-0.5386310514596264</v>
       </c>
       <c r="O45" t="n">
         <v>3.031448937439345</v>
@@ -4189,16 +4189,16 @@
         <v>0.2583433360305136</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.3671116356103492</v>
+        <v>-0.3671116356103501</v>
       </c>
       <c r="R45" t="n">
         <v>1.534750986270393</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4701475820219292</v>
+        <v>0.4701475820219296</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.01404466706342689</v>
+        <v>-0.01404466706342666</v>
       </c>
       <c r="U45" t="n">
         <v>1.321181948197627</v>
@@ -4213,10 +4213,10 @@
         <v>0.9141335814383709</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07756440563745098</v>
+        <v>0.07756440563745087</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.01913631982285358</v>
+        <v>-0.01913631982285357</v>
       </c>
       <c r="AA45" t="n">
         <v>0.294024039433425</v>
@@ -4233,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.147241605196385</v>
+        <v>3.147241605196387</v>
       </c>
       <c r="E46" t="n">
-        <v>2.356415763979175</v>
+        <v>2.356415763979176</v>
       </c>
       <c r="F46" t="n">
-        <v>3.798633556959595</v>
+        <v>3.798633556959591</v>
       </c>
       <c r="G46" t="n">
         <v>8.931783107998402</v>
@@ -4251,7 +4251,7 @@
         <v>11.21383165417132</v>
       </c>
       <c r="J46" t="n">
-        <v>20.94324739044702</v>
+        <v>20.94324739044701</v>
       </c>
       <c r="K46" t="n">
         <v>15.14438225715379</v>
@@ -4266,7 +4266,7 @@
         <v>19.6311363747398</v>
       </c>
       <c r="O46" t="n">
-        <v>35.24744202202067</v>
+        <v>35.24744202202066</v>
       </c>
       <c r="P46" t="n">
         <v>10.16596363158409</v>
@@ -4284,19 +4284,19 @@
         <v>1.993507810398842</v>
       </c>
       <c r="U46" t="n">
-        <v>6.465679273194301</v>
+        <v>6.465679273194302</v>
       </c>
       <c r="V46" t="n">
         <v>1.672747349667194</v>
       </c>
       <c r="W46" t="n">
-        <v>0.758842549788539</v>
+        <v>0.7588425497885389</v>
       </c>
       <c r="X46" t="n">
         <v>2.982287674190169</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3354157661747163</v>
+        <v>0.3354157661747164</v>
       </c>
       <c r="Z46" t="n">
         <v>0.07143795633931649</v>
@@ -4364,7 +4364,7 @@
         <v>1.983488423763012</v>
       </c>
       <c r="T47" t="n">
-        <v>0.8536185870473536</v>
+        <v>0.8536185870473535</v>
       </c>
       <c r="U47" t="n">
         <v>3.666596134291364</v>
@@ -4373,19 +4373,19 @@
         <v>0.5381318906151453</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1825021343292019</v>
+        <v>0.1825021343292021</v>
       </c>
       <c r="X47" t="n">
-        <v>1.189051540859278</v>
+        <v>1.189051540859277</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.05775458639563968</v>
+        <v>0.0577545863956398</v>
       </c>
       <c r="Z47" t="n">
         <v>0.008741096406285419</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.174888673464267</v>
+        <v>0.1748886734642668</v>
       </c>
     </row>
     <row r="48">
@@ -4402,7 +4402,7 @@
         <v>12.06874081794629</v>
       </c>
       <c r="E48" t="n">
-        <v>8.27842048683916</v>
+        <v>8.278420486839156</v>
       </c>
       <c r="F48" t="n">
         <v>15.99665938483106</v>
@@ -4414,7 +4414,7 @@
         <v>12.41108879884229</v>
       </c>
       <c r="I48" t="n">
-        <v>23.86207319171455</v>
+        <v>23.86207319171454</v>
       </c>
       <c r="J48" t="n">
         <v>9.45688307844522</v>
@@ -4447,7 +4447,7 @@
         <v>1.707860075025228</v>
       </c>
       <c r="T48" t="n">
-        <v>0.7190748470737088</v>
+        <v>0.7190748470737089</v>
       </c>
       <c r="U48" t="n">
         <v>3.028248211791498</v>
@@ -4456,13 +4456,13 @@
         <v>1.188211851327835</v>
       </c>
       <c r="W48" t="n">
-        <v>0.4063742684393526</v>
+        <v>0.4063742684393527</v>
       </c>
       <c r="X48" t="n">
         <v>2.256518246694948</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.3006223415988433</v>
+        <v>0.3006223415988432</v>
       </c>
       <c r="Z48" t="n">
         <v>0.02565061784321142</v>
@@ -4482,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.62852361170429</v>
+        <v>-8.628523611704292</v>
       </c>
       <c r="E49" t="n">
-        <v>-6.340159759396053</v>
+        <v>-6.340159759396049</v>
       </c>
       <c r="F49" t="n">
         <v>-10.70640685333371</v>
@@ -4494,19 +4494,19 @@
         <v>-6.406491969909519</v>
       </c>
       <c r="H49" t="n">
-        <v>-5.144801029066517</v>
+        <v>-5.144801029066519</v>
       </c>
       <c r="I49" t="n">
-        <v>-7.357077587280534</v>
+        <v>-7.357077587280537</v>
       </c>
       <c r="J49" t="n">
-        <v>2.773417178612419</v>
+        <v>2.773417178612425</v>
       </c>
       <c r="K49" t="n">
         <v>1.346557673145412</v>
       </c>
       <c r="L49" t="n">
-        <v>4.559793633685439</v>
+        <v>4.559793633685441</v>
       </c>
       <c r="M49" t="n">
         <v>11.56270179047266</v>
@@ -4527,7 +4527,7 @@
         <v>11.63797282857617</v>
       </c>
       <c r="S49" t="n">
-        <v>5.183387191353172</v>
+        <v>5.183387191353171</v>
       </c>
       <c r="T49" t="n">
         <v>2.750719965340701</v>
@@ -4539,7 +4539,7 @@
         <v>3.01190362669129</v>
       </c>
       <c r="W49" t="n">
-        <v>1.354373106336499</v>
+        <v>1.354373106336498</v>
       </c>
       <c r="X49" t="n">
         <v>5.099836373872387</v>
@@ -4551,7 +4551,7 @@
         <v>0.1324319923255399</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.642442700976066</v>
+        <v>1.642442700976065</v>
       </c>
     </row>
     <row r="50">
@@ -4565,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>7.358434731186021</v>
+        <v>7.358434731186017</v>
       </c>
       <c r="E50" t="n">
-        <v>4.799790277489068</v>
+        <v>4.799790277489065</v>
       </c>
       <c r="F50" t="n">
         <v>10.19464322071374</v>
@@ -4577,25 +4577,25 @@
         <v>11.76452856506036</v>
       </c>
       <c r="H50" t="n">
-        <v>7.719988011667111</v>
+        <v>7.71998801166711</v>
       </c>
       <c r="I50" t="n">
         <v>16.4337094951338</v>
       </c>
       <c r="J50" t="n">
-        <v>2.18895099371138</v>
+        <v>2.188950993711384</v>
       </c>
       <c r="K50" t="n">
         <v>0.2314501331630137</v>
       </c>
       <c r="L50" t="n">
-        <v>4.809838717107787</v>
+        <v>4.809838717107791</v>
       </c>
       <c r="M50" t="n">
-        <v>-6.989493046662419</v>
+        <v>-6.989493046662423</v>
       </c>
       <c r="N50" t="n">
-        <v>-6.692391387659654</v>
+        <v>-6.692391387659653</v>
       </c>
       <c r="O50" t="n">
         <v>-6.666010798338888</v>
@@ -4604,13 +4604,13 @@
         <v>0.540463348745666</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.1443097857830065</v>
+        <v>-0.1443097857830069</v>
       </c>
       <c r="R50" t="n">
         <v>1.586205559871735</v>
       </c>
       <c r="S50" t="n">
-        <v>2.201392713088184</v>
+        <v>2.201392713088185</v>
       </c>
       <c r="T50" t="n">
         <v>1.021959709050453</v>
@@ -4628,10 +4628,10 @@
         <v>3.103537726567835</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.4572377501675746</v>
+        <v>0.4572377501675745</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.05004823223770078</v>
+        <v>0.05004823223770079</v>
       </c>
       <c r="AA50" t="n">
         <v>1.12979875064094</v>
@@ -4651,13 +4651,13 @@
         <v>-13.43347848365018</v>
       </c>
       <c r="E51" t="n">
-        <v>-9.811256882807491</v>
+        <v>-9.811256882807488</v>
       </c>
       <c r="F51" t="n">
         <v>-16.85773288352983</v>
       </c>
       <c r="G51" t="n">
-        <v>-15.47740863233627</v>
+        <v>-15.47740863233628</v>
       </c>
       <c r="H51" t="n">
         <v>-11.88897353333343</v>
@@ -4666,10 +4666,10 @@
         <v>-18.75189122858378</v>
       </c>
       <c r="J51" t="n">
-        <v>-1.368574630579921</v>
+        <v>-1.368574630579916</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.608654196377911</v>
+        <v>-1.608654196377909</v>
       </c>
       <c r="L51" t="n">
         <v>-0.7368677946995348</v>
@@ -4693,7 +4693,7 @@
         <v>13.76476261792682</v>
       </c>
       <c r="S51" t="n">
-        <v>6.15850818981412</v>
+        <v>6.158508189814119</v>
       </c>
       <c r="T51" t="n">
         <v>3.308932105543425</v>
@@ -4705,7 +4705,7 @@
         <v>3.559899205916815</v>
       </c>
       <c r="W51" t="n">
-        <v>1.63535826486667</v>
+        <v>1.635358264866669</v>
       </c>
       <c r="X51" t="n">
         <v>5.974197581883145</v>
@@ -4731,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.634426161860992</v>
+        <v>-2.634426161860991</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.64380884964774</v>
+        <v>-1.643808849647736</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.705411158138124</v>
+        <v>-3.705411158138125</v>
       </c>
       <c r="G52" t="n">
         <v>6.074227797066741</v>
@@ -4746,7 +4746,7 @@
         <v>4.731090044644851</v>
       </c>
       <c r="I52" t="n">
-        <v>7.265675294039979</v>
+        <v>7.265675294039982</v>
       </c>
       <c r="J52" t="n">
         <v>21.84414352865383</v>
@@ -4764,7 +4764,7 @@
         <v>22.7385135659839</v>
       </c>
       <c r="O52" t="n">
-        <v>40.15579682953368</v>
+        <v>40.15579682953367</v>
       </c>
       <c r="P52" t="n">
         <v>11.87550227260439</v>
@@ -4776,7 +4776,7 @@
         <v>16.98057589495109</v>
       </c>
       <c r="S52" t="n">
-        <v>4.714835685150616</v>
+        <v>4.714835685150614</v>
       </c>
       <c r="T52" t="n">
         <v>2.455029053153953</v>
@@ -4788,19 +4788,19 @@
         <v>2.043035041556896</v>
       </c>
       <c r="W52" t="n">
-        <v>0.9542518266067735</v>
+        <v>0.9542518266067737</v>
       </c>
       <c r="X52" t="n">
         <v>3.537004482653026</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.4176440050006798</v>
+        <v>0.4176440050006799</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.09513314761703824</v>
+        <v>0.09513314761703821</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.9164958813740858</v>
+        <v>0.9164958813740857</v>
       </c>
     </row>
     <row r="53">
@@ -4814,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>16.89844688829178</v>
+        <v>16.89844688829177</v>
       </c>
       <c r="E53" t="n">
-        <v>11.63051864478307</v>
+        <v>11.63051864478306</v>
       </c>
       <c r="F53" t="n">
         <v>22.28535359508299</v>
@@ -4832,19 +4832,19 @@
         <v>28.87665110409775</v>
       </c>
       <c r="J53" t="n">
-        <v>8.958536055961901</v>
+        <v>8.958536055961899</v>
       </c>
       <c r="K53" t="n">
-        <v>5.21634409223071</v>
+        <v>5.216344092230709</v>
       </c>
       <c r="L53" t="n">
         <v>13.51316108404385</v>
       </c>
       <c r="M53" t="n">
-        <v>-5.136043643128724</v>
+        <v>-5.136043643128721</v>
       </c>
       <c r="N53" t="n">
-        <v>-5.169199815181695</v>
+        <v>-5.169199815181692</v>
       </c>
       <c r="O53" t="n">
         <v>-4.271458334206276</v>
@@ -4853,16 +4853,16 @@
         <v>-0.4553659781220576</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.7867574905764689</v>
+        <v>-0.7867574905764698</v>
       </c>
       <c r="R53" t="n">
         <v>0.4388425309937301</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9531301030776387</v>
+        <v>0.9531301030776391</v>
       </c>
       <c r="T53" t="n">
-        <v>0.2731968996159568</v>
+        <v>0.2731968996159571</v>
       </c>
       <c r="U53" t="n">
         <v>1.938534867169933</v>
@@ -4877,10 +4877,10 @@
         <v>1.731477249771674</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.2262869584895311</v>
+        <v>0.2262869584895309</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.003608360568562716</v>
+        <v>0.003608360568562743</v>
       </c>
       <c r="AA53" t="n">
         <v>0.6312439845122521</v>
@@ -4897,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>2.077499010884187</v>
+        <v>2.077499010884185</v>
       </c>
       <c r="E54" t="n">
         <v>1.004629926236123</v>
       </c>
       <c r="F54" t="n">
-        <v>3.435641938094725</v>
+        <v>3.435641938094729</v>
       </c>
       <c r="G54" t="n">
         <v>3.142998522049821</v>
@@ -4912,10 +4912,10 @@
         <v>1.339638538322016</v>
       </c>
       <c r="I54" t="n">
-        <v>5.572106629956503</v>
+        <v>5.572106629956496</v>
       </c>
       <c r="J54" t="n">
-        <v>-1.751766257619213</v>
+        <v>-1.751766257619209</v>
       </c>
       <c r="K54" t="n">
         <v>-2.577785170908848</v>
@@ -4924,7 +4924,7 @@
         <v>-0.2653088665525445</v>
       </c>
       <c r="M54" t="n">
-        <v>-5.187245642384005</v>
+        <v>-5.187245642384001</v>
       </c>
       <c r="N54" t="n">
         <v>-5.320899306247114</v>
@@ -4939,7 +4939,7 @@
         <v>0.9526615514082555</v>
       </c>
       <c r="R54" t="n">
-        <v>3.641083260416661</v>
+        <v>3.64108326041666</v>
       </c>
       <c r="S54" t="n">
         <v>3.181788770052756</v>
@@ -4954,16 +4954,16 @@
         <v>2.284744708229998</v>
       </c>
       <c r="W54" t="n">
-        <v>0.9303616823883725</v>
+        <v>0.9303616823883722</v>
       </c>
       <c r="X54" t="n">
-        <v>3.992736840348384</v>
+        <v>3.992736840348385</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.5940951261279501</v>
+        <v>0.5940951261279499</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.08098342870344805</v>
+        <v>0.08098342870344806</v>
       </c>
       <c r="AA54" t="n">
         <v>1.415511766275442</v>
@@ -4980,37 +4980,37 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>3.956671205908376</v>
+        <v>3.956671205908374</v>
       </c>
       <c r="E55" t="n">
-        <v>2.419881803069666</v>
+        <v>2.419881803069665</v>
       </c>
       <c r="F55" t="n">
-        <v>5.728974767730493</v>
+        <v>5.728974767730495</v>
       </c>
       <c r="G55" t="n">
-        <v>6.660040157047621</v>
+        <v>6.660040157047622</v>
       </c>
       <c r="H55" t="n">
-        <v>4.049011962831428</v>
+        <v>4.049011962831427</v>
       </c>
       <c r="I55" t="n">
-        <v>9.819499254372804</v>
+        <v>9.819499254372801</v>
       </c>
       <c r="J55" t="n">
-        <v>2.083474342609454</v>
+        <v>2.083474342609458</v>
       </c>
       <c r="K55" t="n">
         <v>0.3277563113442881</v>
       </c>
       <c r="L55" t="n">
-        <v>4.470435140346398</v>
+        <v>4.4704351403464</v>
       </c>
       <c r="M55" t="n">
         <v>-2.187465236817298</v>
       </c>
       <c r="N55" t="n">
-        <v>-3.005614924386082</v>
+        <v>-3.00561492438608</v>
       </c>
       <c r="O55" t="n">
         <v>-0.7519646380275091</v>
@@ -5037,16 +5037,16 @@
         <v>2.029788219692178</v>
       </c>
       <c r="W55" t="n">
-        <v>0.8160456038784456</v>
+        <v>0.8160456038784455</v>
       </c>
       <c r="X55" t="n">
         <v>3.584065006181733</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.5197338497019101</v>
+        <v>0.5197338497019099</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.06961108850773989</v>
+        <v>0.06961108850773991</v>
       </c>
       <c r="AA55" t="n">
         <v>1.246901793736028</v>
@@ -5066,10 +5066,10 @@
         <v>4.645081737050246</v>
       </c>
       <c r="E56" t="n">
-        <v>3.440071327032566</v>
+        <v>3.440071327032568</v>
       </c>
       <c r="F56" t="n">
-        <v>5.833601000251258</v>
+        <v>5.83360100025126</v>
       </c>
       <c r="G56" t="n">
         <v>15.83381799367601</v>
@@ -5099,7 +5099,7 @@
         <v>28.52884277947059</v>
       </c>
       <c r="P56" t="n">
-        <v>8.005042395544681</v>
+        <v>8.005042395544679</v>
       </c>
       <c r="Q56" t="n">
         <v>4.629427081723466</v>
@@ -5120,16 +5120,16 @@
         <v>1.418332559580487</v>
       </c>
       <c r="W56" t="n">
-        <v>0.60654356816729</v>
+        <v>0.6065435681672902</v>
       </c>
       <c r="X56" t="n">
         <v>2.561112017655438</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.2887053780736832</v>
+        <v>0.2887053780736833</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.05518096807542348</v>
+        <v>0.05518096807542346</v>
       </c>
       <c r="AA56" t="n">
         <v>0.6734434395929552</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3.12249040679679</v>
+        <v>3.122490406796791</v>
       </c>
       <c r="E57" t="n">
-        <v>2.475414729446707</v>
+        <v>2.475414729446709</v>
       </c>
       <c r="F57" t="n">
         <v>3.66126537690378</v>
@@ -5161,7 +5161,7 @@
         <v>10.74761648706813</v>
       </c>
       <c r="I57" t="n">
-        <v>17.59406738309135</v>
+        <v>17.59406738309136</v>
       </c>
       <c r="J57" t="n">
         <v>25.58358622212268</v>
@@ -5173,7 +5173,7 @@
         <v>32.75274383035446</v>
       </c>
       <c r="M57" t="n">
-        <v>29.69256750432198</v>
+        <v>29.69256750432197</v>
       </c>
       <c r="N57" t="n">
         <v>21.48290133897726</v>
@@ -5194,7 +5194,7 @@
         <v>3.72916456968242</v>
       </c>
       <c r="T57" t="n">
-        <v>1.88117361765387</v>
+        <v>1.881173617653869</v>
       </c>
       <c r="U57" t="n">
         <v>6.155159989158147</v>
@@ -5203,16 +5203,16 @@
         <v>1.469289928597372</v>
       </c>
       <c r="W57" t="n">
-        <v>0.6636866024772725</v>
+        <v>0.6636866024772726</v>
       </c>
       <c r="X57" t="n">
         <v>2.632967463102685</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.2768402011819787</v>
+        <v>0.2768402011819788</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.06337148414975444</v>
+        <v>0.06337148414975442</v>
       </c>
       <c r="AA57" t="n">
         <v>0.6219365101486296</v>
@@ -5232,7 +5232,7 @@
         <v>8.786377276253859</v>
       </c>
       <c r="E58" t="n">
-        <v>5.771979961013576</v>
+        <v>5.771979961013573</v>
       </c>
       <c r="F58" t="n">
         <v>12.01766897798242</v>
@@ -5241,16 +5241,16 @@
         <v>10.41636870681171</v>
       </c>
       <c r="H58" t="n">
-        <v>6.628518918901651</v>
+        <v>6.62851891890165</v>
       </c>
       <c r="I58" t="n">
-        <v>14.83407716675601</v>
+        <v>14.834077166756</v>
       </c>
       <c r="J58" t="n">
-        <v>1.585127320126135</v>
+        <v>1.585127320126137</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.206479563191369</v>
+        <v>-0.2064795631913672</v>
       </c>
       <c r="L58" t="n">
         <v>4.145297182933861</v>
@@ -5259,13 +5259,13 @@
         <v>-6.595943205315175</v>
       </c>
       <c r="N58" t="n">
-        <v>-6.344751824441975</v>
+        <v>-6.344751824441973</v>
       </c>
       <c r="O58" t="n">
         <v>-6.062595986659865</v>
       </c>
       <c r="P58" t="n">
-        <v>0.6909242137520391</v>
+        <v>0.6909242137520382</v>
       </c>
       <c r="Q58" t="n">
         <v>0.002510637165837437</v>
@@ -5277,7 +5277,7 @@
         <v>2.185567537577313</v>
       </c>
       <c r="T58" t="n">
-        <v>0.9984947661044126</v>
+        <v>0.9984947661044129</v>
       </c>
       <c r="U58" t="n">
         <v>3.646061836901305</v>
@@ -5286,16 +5286,16 @@
         <v>1.685250061536475</v>
       </c>
       <c r="W58" t="n">
-        <v>0.6302163926595412</v>
+        <v>0.6302163926595411</v>
       </c>
       <c r="X58" t="n">
-        <v>3.059024009258459</v>
+        <v>3.05902400925846</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.4453984665925977</v>
+        <v>0.4453984665925976</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.0475688312330912</v>
+        <v>0.04756883123309122</v>
       </c>
       <c r="AA58" t="n">
         <v>1.103259683868076</v>
@@ -5312,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4.669832935449842</v>
+        <v>4.669832935449843</v>
       </c>
       <c r="E59" t="n">
         <v>3.321072361565034</v>
       </c>
       <c r="F59" t="n">
-        <v>5.970969180307073</v>
+        <v>5.970969180307071</v>
       </c>
       <c r="G59" t="n">
         <v>10.51922988101334</v>
@@ -5342,7 +5342,7 @@
         <v>19.41571200513977</v>
       </c>
       <c r="N59" t="n">
-        <v>13.62907552960519</v>
+        <v>13.6290755296052</v>
       </c>
       <c r="O59" t="n">
         <v>25.68194222588648</v>
@@ -5369,13 +5369,13 @@
         <v>1.621789980650309</v>
       </c>
       <c r="W59" t="n">
-        <v>0.7016995154785567</v>
+        <v>0.7016995154785566</v>
       </c>
       <c r="X59" t="n">
         <v>2.910432228742923</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.3472809430664208</v>
+        <v>0.3472809430664209</v>
       </c>
       <c r="Z59" t="n">
         <v>0.06324744026498552</v>
@@ -5395,13 +5395,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5.479262536161833</v>
+        <v>5.479262536161828</v>
       </c>
       <c r="E60" t="n">
-        <v>3.384538400655525</v>
+        <v>3.384538400655523</v>
       </c>
       <c r="F60" t="n">
-        <v>7.90131039107797</v>
+        <v>7.901310391077973</v>
       </c>
       <c r="G60" t="n">
         <v>8.247486930062561</v>
@@ -5413,7 +5413,7 @@
         <v>12.1863168707175</v>
       </c>
       <c r="J60" t="n">
-        <v>-1.646289606517287</v>
+        <v>-1.646289606517282</v>
       </c>
       <c r="K60" t="n">
         <v>-2.674091349090123</v>
@@ -5425,7 +5425,7 @@
         <v>-9.989273452229126</v>
       </c>
       <c r="N60" t="n">
-        <v>-9.007675769520688</v>
+        <v>-9.007675769520684</v>
       </c>
       <c r="O60" t="n">
         <v>-10.3174644341617</v>
@@ -5434,10 +5434,10 @@
         <v>0.1836086916693809</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.3541327132660661</v>
+        <v>-0.3541327132660665</v>
       </c>
       <c r="R60" t="n">
-        <v>1.038251332233404</v>
+        <v>1.038251332233402</v>
       </c>
       <c r="S60" t="n">
         <v>2.442883973616039</v>
@@ -5452,16 +5452,16 @@
         <v>1.978830850675293</v>
       </c>
       <c r="W60" t="n">
-        <v>0.7589025695684632</v>
+        <v>0.7589025695684631</v>
       </c>
       <c r="X60" t="n">
-        <v>3.512209560734486</v>
+        <v>3.512209560734487</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.5315990265936146</v>
+        <v>0.5315990265936145</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.06142057243340893</v>
+        <v>0.06142057243340894</v>
       </c>
       <c r="AA60" t="n">
         <v>1.298408723180354</v>
@@ -5481,10 +5481,10 @@
         <v>13.35253218102932</v>
       </c>
       <c r="E61" t="n">
-        <v>9.496141187237381</v>
+        <v>9.496141187237377</v>
       </c>
       <c r="F61" t="n">
-        <v>17.19563891590933</v>
+        <v>17.19563891590932</v>
       </c>
       <c r="G61" t="n">
         <v>24.24524833203662</v>
@@ -5493,7 +5493,7 @@
         <v>17.59587908537848</v>
       </c>
       <c r="I61" t="n">
-        <v>31.05646237645432</v>
+        <v>31.05646237645433</v>
       </c>
       <c r="J61" t="n">
         <v>21.25967734375279</v>
@@ -5508,7 +5508,7 @@
         <v>12.81143679101623</v>
       </c>
       <c r="N61" t="n">
-        <v>8.570806984919081</v>
+        <v>8.570806984919082</v>
       </c>
       <c r="O61" t="n">
         <v>17.50530354108654</v>
@@ -5520,13 +5520,13 @@
         <v>2.211599116306614</v>
       </c>
       <c r="R61" t="n">
-        <v>6.928808626246649</v>
+        <v>6.92880862624665</v>
       </c>
       <c r="S61" t="n">
         <v>1.732841206885628</v>
       </c>
       <c r="T61" t="n">
-        <v>0.7262687968637052</v>
+        <v>0.7262687968637053</v>
       </c>
       <c r="U61" t="n">
         <v>3.192392884092104</v>
@@ -5535,7 +5535,7 @@
         <v>0.7550057770030794</v>
       </c>
       <c r="W61" t="n">
-        <v>0.2444652113288114</v>
+        <v>0.2444652113288117</v>
       </c>
       <c r="X61" t="n">
         <v>1.540705835348475</v>
@@ -5544,7 +5544,7 @@
         <v>0.1479274675717099</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.01274938752919914</v>
+        <v>0.01274938752919913</v>
       </c>
       <c r="AA61" t="n">
         <v>0.4038519310389607</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>7.119634764015594</v>
+        <v>7.119634764015593</v>
       </c>
       <c r="E62" t="n">
         <v>5.05285438030143</v>
@@ -5600,7 +5600,7 @@
         <v>5.788188232441726</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.210690171531981</v>
+        <v>3.21069017153198</v>
       </c>
       <c r="R62" t="n">
         <v>8.83986214918014</v>
@@ -5618,16 +5618,16 @@
         <v>1.341625656829603</v>
       </c>
       <c r="W62" t="n">
-        <v>0.5398204682579776</v>
+        <v>0.5398204682579777</v>
       </c>
       <c r="X62" t="n">
         <v>2.459580760668608</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.2926776992487366</v>
+        <v>0.2926776992487367</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.04533751799801946</v>
+        <v>0.04533751799801945</v>
       </c>
       <c r="AA62" t="n">
         <v>0.7072576578553715</v>
@@ -5647,7 +5647,7 @@
         <v>21.1080209282965</v>
       </c>
       <c r="E63" t="n">
-        <v>14.90408459175919</v>
+        <v>14.90408459175918</v>
       </c>
       <c r="F63" t="n">
         <v>27.3423263267216</v>
@@ -5662,7 +5662,7 @@
         <v>43.21846130572446</v>
       </c>
       <c r="J63" t="n">
-        <v>21.06808153023315</v>
+        <v>21.06808153023314</v>
       </c>
       <c r="K63" t="n">
         <v>14.3708982353445</v>
@@ -5674,10 +5674,10 @@
         <v>3.469747732224148</v>
       </c>
       <c r="N63" t="n">
-        <v>1.429013767183722</v>
+        <v>1.429013767183724</v>
       </c>
       <c r="O63" t="n">
-        <v>6.079487761583128</v>
+        <v>6.079487761583131</v>
       </c>
       <c r="P63" t="n">
         <v>0.4647371281004276</v>
@@ -5686,10 +5686,10 @@
         <v>-0.3041091310761339</v>
       </c>
       <c r="R63" t="n">
-        <v>1.866968947491571</v>
+        <v>1.866968947491572</v>
       </c>
       <c r="S63" t="n">
-        <v>0.244481497004946</v>
+        <v>0.2444814970049465</v>
       </c>
       <c r="T63" t="n">
         <v>-0.1342005074570789</v>
@@ -5701,13 +5701,13 @@
         <v>0.1174285281596708</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.1080330799103371</v>
+        <v>-0.1080330799103368</v>
       </c>
       <c r="X63" t="n">
         <v>0.5499754645810948</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.01504241278638779</v>
+        <v>0.01504241278638774</v>
       </c>
       <c r="Z63" t="n">
         <v>-0.02802925901395215</v>
@@ -5727,25 +5727,25 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>5.955243384517778</v>
+        <v>5.955243384517774</v>
       </c>
       <c r="E64" t="n">
-        <v>3.708601628497028</v>
+        <v>3.708601628497026</v>
       </c>
       <c r="F64" t="n">
-        <v>8.508985643500864</v>
+        <v>8.508985643500868</v>
       </c>
       <c r="G64" t="n">
-        <v>7.798100310646344</v>
+        <v>7.798100310646346</v>
       </c>
       <c r="H64" t="n">
         <v>4.646791556235879</v>
       </c>
       <c r="I64" t="n">
-        <v>11.65310609459157</v>
+        <v>11.65310609459156</v>
       </c>
       <c r="J64" t="n">
-        <v>-1.847564164379037</v>
+        <v>-1.847564164379031</v>
       </c>
       <c r="K64" t="n">
         <v>-2.820067914541584</v>
@@ -5757,22 +5757,22 @@
         <v>-9.858090171780043</v>
       </c>
       <c r="N64" t="n">
-        <v>-8.891795915114795</v>
+        <v>-8.891795915114791</v>
       </c>
       <c r="O64" t="n">
-        <v>-10.11632616360203</v>
+        <v>-10.11632616360202</v>
       </c>
       <c r="P64" t="n">
         <v>0.2337623133381719</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.3051925722831181</v>
+        <v>-0.3051925722831186</v>
       </c>
       <c r="R64" t="n">
-        <v>1.110163421039122</v>
+        <v>1.11016342103912</v>
       </c>
       <c r="S64" t="n">
-        <v>2.437608915112415</v>
+        <v>2.437608915112416</v>
       </c>
       <c r="T64" t="n">
         <v>1.157758844741465</v>
@@ -5784,16 +5784,16 @@
         <v>1.965956083808293</v>
       </c>
       <c r="W64" t="n">
-        <v>0.7541125367687982</v>
+        <v>0.7541125367687981</v>
       </c>
       <c r="X64" t="n">
-        <v>3.497371654964694</v>
+        <v>3.497371654964695</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.527652598735289</v>
+        <v>0.5276525987352889</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.06059410543187241</v>
+        <v>0.06059410543187242</v>
       </c>
       <c r="AA64" t="n">
         <v>1.289562367589399</v>
@@ -5810,13 +5810,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.279273118480857</v>
+        <v>-0.2792731184808543</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09550625502730625</v>
+        <v>0.09550625502730892</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8044030760794625</v>
+        <v>-0.8044030760794643</v>
       </c>
       <c r="G65" t="n">
         <v>9.141882812648324</v>
@@ -5858,7 +5858,7 @@
         <v>4.468069366119137</v>
       </c>
       <c r="T65" t="n">
-        <v>2.303586622165582</v>
+        <v>2.303586622165581</v>
       </c>
       <c r="U65" t="n">
         <v>7.246255452192213</v>
@@ -5873,10 +5873,10 @@
         <v>3.113494742716583</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.3393363007163142</v>
+        <v>0.3393363007163143</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.08293434041979356</v>
+        <v>0.08293434041979354</v>
       </c>
       <c r="AA65" t="n">
         <v>0.7390395532437175</v>
@@ -5896,7 +5896,7 @@
         <v>12.99595131625859</v>
       </c>
       <c r="E66" t="n">
-        <v>9.045545907989695</v>
+        <v>9.045545907989693</v>
       </c>
       <c r="F66" t="n">
         <v>17.07464170962104</v>
@@ -5920,19 +5920,19 @@
         <v>19.01707073780462</v>
       </c>
       <c r="M66" t="n">
-        <v>2.009848170037696</v>
+        <v>2.009848170037694</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2534617579234428</v>
+        <v>0.2534617579234446</v>
       </c>
       <c r="O66" t="n">
-        <v>4.28835010912954</v>
+        <v>4.288350109129542</v>
       </c>
       <c r="P66" t="n">
         <v>1.611027319974524</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.4851589966661729</v>
+        <v>0.4851589966661725</v>
       </c>
       <c r="R66" t="n">
         <v>3.23006824278673</v>
@@ -5941,7 +5941,7 @@
         <v>1.476918931504621</v>
       </c>
       <c r="T66" t="n">
-        <v>0.5910973590313771</v>
+        <v>0.5910973590313769</v>
       </c>
       <c r="U66" t="n">
         <v>2.718650340030345</v>
@@ -5950,13 +5950,13 @@
         <v>0.9590048965240139</v>
       </c>
       <c r="W66" t="n">
-        <v>0.3016382555287558</v>
+        <v>0.3016382555287561</v>
       </c>
       <c r="X66" t="n">
         <v>1.87752222406788</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.2341539208894545</v>
+        <v>0.2341539208894544</v>
       </c>
       <c r="Z66" t="n">
         <v>0.01593121165057632</v>
@@ -5979,7 +5979,7 @@
         <v>10.54614948769284</v>
       </c>
       <c r="E67" t="n">
-        <v>7.313763889253299</v>
+        <v>7.313763889253297</v>
       </c>
       <c r="F67" t="n">
         <v>13.82432376148358</v>
@@ -6003,10 +6003,10 @@
         <v>18.23463947159394</v>
       </c>
       <c r="M67" t="n">
-        <v>7.074242540780983</v>
+        <v>7.074242540780984</v>
       </c>
       <c r="N67" t="n">
-        <v>4.171997930008803</v>
+        <v>4.171997930008804</v>
       </c>
       <c r="O67" t="n">
         <v>10.60467281056027</v>
@@ -6024,7 +6024,7 @@
         <v>2.20527361093409</v>
       </c>
       <c r="T67" t="n">
-        <v>0.997867068245729</v>
+        <v>0.9978670682457292</v>
       </c>
       <c r="U67" t="n">
         <v>3.810667215339411</v>
@@ -6042,7 +6042,7 @@
         <v>0.2887571647071387</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.03384113391754238</v>
+        <v>0.0338411339175424</v>
       </c>
       <c r="AA67" t="n">
         <v>0.7233791649358784</v>
@@ -6059,34 +6059,34 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.8730348644371073</v>
+        <v>-0.87303486443711</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9322163548742433</v>
+        <v>-0.9322163548742424</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5597194425214367</v>
+        <v>-0.5597194425214314</v>
       </c>
       <c r="G68" t="n">
-        <v>2.903711607283528</v>
+        <v>2.90371160728353</v>
       </c>
       <c r="H68" t="n">
-        <v>1.469505006761207</v>
+        <v>1.469505006761206</v>
       </c>
       <c r="I68" t="n">
-        <v>4.804921341989601</v>
+        <v>4.804921341989598</v>
       </c>
       <c r="J68" t="n">
-        <v>2.581821365092773</v>
+        <v>2.581821365092779</v>
       </c>
       <c r="K68" t="n">
         <v>0.8619921858799433</v>
       </c>
       <c r="L68" t="n">
-        <v>4.795573097758934</v>
+        <v>4.795573097758938</v>
       </c>
       <c r="M68" t="n">
-        <v>2.221012731680581</v>
+        <v>2.221012731680577</v>
       </c>
       <c r="N68" t="n">
         <v>0.3335219756698109</v>
@@ -6101,7 +6101,7 @@
         <v>2.322458320616793</v>
       </c>
       <c r="R68" t="n">
-        <v>6.576133149821096</v>
+        <v>6.576133149821095</v>
       </c>
       <c r="S68" t="n">
         <v>3.69502748147249</v>
@@ -6148,7 +6148,7 @@
         <v>9.298610010802058</v>
       </c>
       <c r="F69" t="n">
-        <v>16.10128561735183</v>
+        <v>16.10128561735182</v>
       </c>
       <c r="G69" t="n">
         <v>27.07361643285191</v>
@@ -6187,10 +6187,10 @@
         <v>10.48372483209513</v>
       </c>
       <c r="S69" t="n">
-        <v>1.999313599273883</v>
+        <v>1.999313599273884</v>
       </c>
       <c r="T69" t="n">
-        <v>0.8770835299933936</v>
+        <v>0.8770835299933933</v>
       </c>
       <c r="U69" t="n">
         <v>3.665214015878863</v>
@@ -6199,16 +6199,16 @@
         <v>0.5767561912161436</v>
       </c>
       <c r="W69" t="n">
-        <v>0.196872232728197</v>
+        <v>0.1968722327281974</v>
       </c>
       <c r="X69" t="n">
         <v>1.233565258168653</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.06959386997061651</v>
+        <v>0.06959386997061662</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.011220497410895</v>
+        <v>0.01122049741089499</v>
       </c>
       <c r="AA69" t="n">
         <v>0.2014277402371309</v>
@@ -6225,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.846855844646916</v>
+        <v>-2.846855844646914</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.339935145769137</v>
+        <v>-2.339935145769136</v>
       </c>
       <c r="F70" t="n">
         <v>-3.202362138235993</v>
@@ -6240,25 +6240,25 @@
         <v>-3.292940134839936</v>
       </c>
       <c r="I70" t="n">
-        <v>-3.408921227149198</v>
+        <v>-3.408921227149202</v>
       </c>
       <c r="J70" t="n">
-        <v>1.872521040405605</v>
+        <v>1.872521040405607</v>
       </c>
       <c r="K70" t="n">
         <v>0.5203686677068351</v>
       </c>
       <c r="L70" t="n">
-        <v>3.791627986823618</v>
+        <v>3.791627986823617</v>
       </c>
       <c r="M70" t="n">
         <v>7.416590382872949</v>
       </c>
       <c r="N70" t="n">
-        <v>4.367938002161063</v>
+        <v>4.367938002161064</v>
       </c>
       <c r="O70" t="n">
-        <v>11.07612768259525</v>
+        <v>11.07612768259524</v>
       </c>
       <c r="P70" t="n">
         <v>6.421383596838414</v>
@@ -6270,7 +6270,7 @@
         <v>9.394701344421506</v>
       </c>
       <c r="S70" t="n">
-        <v>4.418107102398336</v>
+        <v>4.418107102398335</v>
       </c>
       <c r="T70" t="n">
         <v>2.289198722585589</v>
@@ -6285,10 +6285,10 @@
         <v>1.158963829518264</v>
       </c>
       <c r="X70" t="n">
-        <v>4.545119565409529</v>
+        <v>4.54511956540953</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.6447260487705809</v>
+        <v>0.6447260487705808</v>
       </c>
       <c r="Z70" t="n">
         <v>0.1087368010478181</v>
@@ -6311,10 +6311,10 @@
         <v>-7.795961898577612</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.565501252306865</v>
+        <v>-5.565501252306862</v>
       </c>
       <c r="F71" t="n">
-        <v>-9.97773439462253</v>
+        <v>-9.977734394622527</v>
       </c>
       <c r="G71" t="n">
         <v>-4.926283727342875</v>
@@ -6371,7 +6371,7 @@
         <v>4.74818207938319</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.6367814064204742</v>
+        <v>0.6367814064204743</v>
       </c>
       <c r="Z71" t="n">
         <v>0.1284237012026262</v>
@@ -6391,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.5164539996663748</v>
+        <v>-0.5164539996663757</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4816210756265598</v>
+        <v>-0.481621075626558</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4387222362331462</v>
+        <v>-0.4387222362331435</v>
       </c>
       <c r="G72" t="n">
         <v>4.83330646926639</v>
@@ -6406,10 +6406,10 @@
         <v>3.217275806944345</v>
       </c>
       <c r="I72" t="n">
-        <v>6.685496350061209</v>
+        <v>6.685496350061207</v>
       </c>
       <c r="J72" t="n">
-        <v>10.14682591444818</v>
+        <v>10.14682591444819</v>
       </c>
       <c r="K72" t="n">
         <v>6.76938132856749</v>
